--- a/Google.xlsx
+++ b/Google.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bce7992b8f1a583/Google/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Good\Google\Google\google\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{EBF0A5BC-6CCB-4316-9D9D-E228CD2725B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{59BC3CD1-7AC9-4BA5-B612-8F5B080EFDD4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D2018D-1265-4420-A545-239D7D50E9BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="6765" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{CDF7BE9C-2F84-4D58-AC34-8F640857566C}"/>
+    <workbookView xWindow="2775" yWindow="3510" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="8" xr2:uid="{CDF7BE9C-2F84-4D58-AC34-8F640857566C}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>xuguoxun01@51hitech.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,11 +136,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gxatgit2 / gx.at.git.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stored in /c/Users/guoxun/.ssh/id_rsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git with ssh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh-keygen -t rsa -C "gxatgit2@github.com"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh-copy-id  gxatgit2@github.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh -T git@github.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config user.name gxatgit2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config user.email gxatgit2@github.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh-copy-id -i id_rsa_pub path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gxatgit2 / dot string .18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53EFB3C-6558-4DF1-ABB1-0A02BBB5D89E}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -612,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -803,17 +831,53 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3C75C2-0599-4CB8-B897-C61DC356FEA1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Google.xlsx
+++ b/Google.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Good\Google\Google\google\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D2018D-1265-4420-A545-239D7D50E9BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C0EE7F-59EC-4AB0-8FEA-199E87092675}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="3510" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="8" xr2:uid="{CDF7BE9C-2F84-4D58-AC34-8F640857566C}"/>
+    <workbookView xWindow="2775" yWindow="2685" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="9" xr2:uid="{CDF7BE9C-2F84-4D58-AC34-8F640857566C}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Kubernetes" sheetId="6" r:id="rId7"/>
     <sheet name="ServiceMesh" sheetId="8" r:id="rId8"/>
     <sheet name="Git" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId10"/>
+    <sheet name="VMWare" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>xuguoxun01@51hitech.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,10 @@
   </si>
   <si>
     <t>gxatgit2 / dot string .18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vm should have printer option checked.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,12 +585,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EBC4DF-793D-410B-A6E1-001479F308C2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -833,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3C75C2-0599-4CB8-B897-C61DC356FEA1}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/Google.xlsx
+++ b/Google.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Good\Google\Google\google\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C0EE7F-59EC-4AB0-8FEA-199E87092675}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FCF3EE-61C1-4B3D-A4AC-2D74D5CDAEBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2685" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="9" xr2:uid="{CDF7BE9C-2F84-4D58-AC34-8F640857566C}"/>
+    <workbookView xWindow="5835" yWindow="2250" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="7" xr2:uid="{CDF7BE9C-2F84-4D58-AC34-8F640857566C}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>xuguoxun01@51hitech.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,7 +172,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vm should have printer option checked.</t>
+    <t>vm should have printer option removed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes 的本质是应用的生命周期管理，具体来说就是部署和管理（扩缩容、自动恢复、发布）。</t>
+  </si>
+  <si>
+    <t>Kubernetes 为微服务提供了可扩展、高弹性的部署和管理平台。</t>
+  </si>
+  <si>
+    <t>Service Mesh 的基础是透明代理，通过 sidecar proxy 拦截到微服务间流量后再通过控制平面配置管理微服务的行为。</t>
+  </si>
+  <si>
+    <t>Envoy xDS 定义了 Service Mesh 配置的协议标准。</t>
+  </si>
+  <si>
+    <t>Service Mesh 是对 Kubernetes 中的 service 更上层的抽象，它的下一步是 serverless。</t>
+  </si>
+  <si>
+    <t>Service Mesh 将流量管理从 Kubernetes 中解耦，Service Mesh 内部的流量无需 kube-proxy 组件的支持，通过为更接近微服务应用层的抽象，管理服务间的流量、安全性和可观察性。</t>
+  </si>
+  <si>
+    <t>https://www.servicemesher.com/istio-handbook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务网格Service Mesh: Istio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EBC4DF-793D-410B-A6E1-001479F308C2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -813,30 +841,64 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5660193-ABFA-403B-B6FD-8A2F5D7FEE2E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{08DCD638-1BFE-476C-8B2D-6832F3FAF3F9}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{F77F0179-3E23-4EA5-8780-B7F4D961E523}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
